--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/z_cwkf_hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/z_cwkf_hzero-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hand\choerodon\workflow-service\src\main\resources\script\db\init-data\workflow_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00574517-545F-4D33-BE4A-478CEF5152DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA266F3E-BE1A-4AB8-A47A-F37F85887A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="266">
   <si>
     <r>
       <rPr>
@@ -2198,9 +2198,6 @@
     <t>hmsg_message_template-18</t>
   </si>
   <si>
-    <t>HWKF_EMAIL_APPROVE</t>
-  </si>
-  <si>
     <t>Email approval default structure template</t>
   </si>
   <si>
@@ -2457,36 +2454,6 @@
   </si>
   <si>
     <t>hmsg_message_template-29</t>
-  </si>
-  <si>
-    <t>HWKF.TODO.EMAIL</t>
-  </si>
-  <si>
-    <t>HWKF.TODO.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.CARBON_COPY.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.FLOW_URGE.DINGTAL</t>
-  </si>
-  <si>
-    <t>HWKF.FLOW_URGE_AUTO.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.REJECT_APPLIER.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.REJECT_APPROVER.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.APPROVED_APPLIER.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.TASK_ACTION_BACK.DINGTALK</t>
-  </si>
-  <si>
-    <t>HWKF.TASK_WITHDRAW.DINGTALK</t>
   </si>
   <si>
     <t>待办工作流邮件</t>
@@ -2567,42 +2534,6 @@
 			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
-			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 您有流程被&lt;strong&gt;&lt;span style="color:#f39c12"&gt;催办&lt;/span&gt;&lt;/strong&gt;，请及时处理。&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;&lt;span style="font-size:14px"&gt;【${backlog_num}】${summary}&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startRealName}&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;点击链接跳转至：&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;a href="https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"&gt;待办详情&lt;/a&gt;&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
-	&lt;tbody&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
 			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个流程任务&lt;strong&gt;&lt;span style="color:#c0392b"&gt;已超时&lt;/span&gt;&lt;/strong&gt;。&lt;/span&gt;&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2679,175 +2610,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table border="0" cellpadding="1" cellspacing="4"&gt;
-	&lt;tbody&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2"&gt;&amp;nbsp;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" rowspan="1"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个&lt;strong&gt;新的待办事项需要处理&lt;/strong&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/td&gt;
-			&lt;td&gt;【${backlog_num}】${summary}&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/td&gt;
-			&lt;td&gt;${startRealName}&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/td&gt;
-			&lt;td&gt;${startInstanceDate}&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td&gt;点击链接跳转至：&lt;/td&gt;
-			&lt;td&gt;&lt;strong&gt;&lt;a href="https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"&gt;待办详情&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" rowspan="1"&gt;&amp;nbsp;&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;!--[if !mso]&gt;&lt;!-- --&gt;&lt;!--&lt;![endif]--&gt;&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;!--&lt;![endif]--&gt;&lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;&lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix { width:100% !important; }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;!--&lt;![endif]--&gt;
-&lt;div&gt;&lt;!--[if mso | IE]&gt;
-  &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
-  &gt;
-    &lt;tr&gt;
-      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-  &lt;![endif]--&gt;
-&lt;div style="margin-left:0px; margin-right:0px"&gt;
-&lt;table align="center" border="0" cellpadding="0" cellspacing="0" style="width:100%"&gt;
-	&lt;tbody&gt;
-		&lt;tr&gt;
-			&lt;td style="text-align:center; vertical-align:top"&gt;&lt;!--[if mso | IE]&gt;
-          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-            &lt;tr&gt;
-              &lt;td
-                      class="" style="vertical-align:top;width:782px;"
-              &gt;
-          &lt;![endif]--&gt;
-			&lt;div style="text-align:left"&gt;
-			&lt;table border="0" cellpadding="0" cellspacing="0" style="vertical-align:top; width:100%"&gt;
-				&lt;tbody&gt;
-					&lt;tr&gt;
-						&lt;td&gt;
-						&lt;div style="text-align:left"&gt;
-						&lt;div style="margin-left:0px; margin-right:0px"&gt;
-						&lt;div&gt;
-						&lt;table style="width:100%"&gt;
-							&lt;tbody&gt;
-								&lt;tr&gt;
-									&lt;td style="vertical-align:bottom"&gt;
-									&lt;table style="width:100%"&gt;
-										&lt;tbody&gt;
-											&lt;tr&gt;
-												&lt;td style="width:160px"&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" width="190" /&gt;&lt;/td&gt;
-												&lt;td style="text-align:right; vertical-align:middle"&gt;猪齿鱼数智化效能平台&lt;/td&gt;
-											&lt;/tr&gt;
-										&lt;/tbody&gt;
-									&lt;/table&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&amp;nbsp;&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/tbody&gt;
-						&lt;/table&gt;
-						&lt;/div&gt;
-						&lt;div&gt;
-						&lt;div style="margin-left:10px; margin-right:10px"&gt;
-						&lt;p&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
-						&lt;p style="text-align:justify"&gt;您好，您有一个新的待办事项需要&lt;a href="https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
-						&lt;p style="text-align:justify"&gt;待办名称：【${backlog_num}】${summary}&lt;/p&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;div&gt;
-						&lt;div style="text-align:justify"&gt;
-						&lt;table style="height:148px; width:100%"&gt;
-							&lt;tbody&gt;
-								&lt;tr&gt;
-									&lt;td&gt;
-									&lt;div&gt;
-									&lt;p style="text-align:left"&gt;此邮件为系统邮件，请勿回复。&lt;/p&gt;
-									&lt;p style="text-align:left"&gt;如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a href="http://choerodon.io/zh/" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a href="https://open.hand-china.com/document-center/doc/product/10177/10419" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;帮助文档&lt;/a&gt;。&lt;/p&gt;
-									&lt;p style="text-align:left"&gt;如果您需要任何帮助或者提供反馈, 请访问 &lt;a href="https://openforum.hand-china.com/" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。&lt;/p&gt;
-									&lt;p style="text-align:left"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" rel="noopener  norefferrer" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。&lt;/p&gt;
-									&lt;/div&gt;
-									&lt;/td&gt;
-									&lt;td&gt;
-									&lt;table&gt;
-										&lt;tbody&gt;
-											&lt;tr&gt;
-												&lt;td&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/wechat-xzs.png" width="80" /&gt;&lt;/td&gt;
-											&lt;/tr&gt;
-											&lt;tr&gt;
-												&lt;td style="text-align:center"&gt;官方小助手&lt;/td&gt;
-											&lt;/tr&gt;
-										&lt;/tbody&gt;
-									&lt;/table&gt;
-									&lt;/td&gt;
-									&lt;td&gt;
-									&lt;table&gt;
-										&lt;tbody&gt;
-											&lt;tr&gt;
-												&lt;td&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/wechat-code.jpg" width="80" /&gt;&lt;/td&gt;
-											&lt;/tr&gt;
-											&lt;tr&gt;
-												&lt;td style="text-align:center"&gt;微信公众号&lt;/td&gt;
-											&lt;/tr&gt;
-										&lt;/tbody&gt;
-									&lt;/table&gt;
-									&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/tbody&gt;
-						&lt;/table&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;div&gt;
-						&lt;p style="margin-left:0px; margin-right:0px; text-align:center"&gt;Copyright &amp;copy; The Choerodon Author. All rights reserved.&lt;/p&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;/td&gt;
-					&lt;/tr&gt;
-				&lt;/tbody&gt;
-			&lt;/table&gt;
-			&lt;/div&gt;
-			&lt;!--[if mso | IE]&gt;
-          &lt;/td&gt;
-          &lt;/tr&gt;
-          &lt;/table&gt;
-          &lt;![endif]--&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;!--[if mso | IE]&gt;
-  &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;/table&gt;
-  &lt;![endif]--&gt;&lt;/div&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;您好&lt;/p&gt;
 &lt;p&gt;您提交的流程运行异常，请联系管理员处理&lt;/p&gt;
 &lt;p&gt;流程名称：${description}&lt;/p&gt;
@@ -2875,37 +2637,6 @@
 		&lt;tr&gt;
 			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
 			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/tbody&gt;
-&lt;/table&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
-	&lt;tbody&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &lt;span style="font-family:微软雅黑"&gt;您有一个新的抄送事项&lt;a href="https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"&gt;&lt;strong&gt;&lt;span style="color:#f39c12"&gt;需要处理&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;。&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;【${backlog_num}】${summary}&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;抄送来源人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionFromRealName}&lt;/span&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;strong&gt;抄送备注&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;${actionFromComment}&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
@@ -3096,12 +2827,345 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>HWKF.TODO</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>backlog_num</t>
+  </si>
+  <si>
+    <t>domainName</t>
+  </si>
+  <si>
+    <t>startRealName</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>tenantId</t>
+  </si>
+  <si>
+    <t>rejectComment</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>actionFromComment</t>
+  </si>
+  <si>
+    <t>actionFromRealName</t>
+  </si>
+  <si>
+    <t>actionMeaning</t>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>backlog_num</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.FLOW_URGE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 您有流程被&lt;strong&gt;&lt;span style="color:#f39c12"&gt;催办&lt;/span&gt;&lt;/strong&gt;，请及时处理。&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;【${backlog_num}】${summary}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startRealName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;点击链接跳转至：&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"&gt;待办详情&lt;/a&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.FLOW_URGE_AUTO</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.REJECT_APPLIER</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.REJECT_APPROVER</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table border="0" cellpadding="1" cellspacing="4"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个&lt;strong&gt;新的待办事项需要处理&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/td&gt;
+			&lt;td&gt;【${backlog_num}】${summary}&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/td&gt;
+			&lt;td&gt;${startRealName}&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/td&gt;
+			&lt;td&gt;${startInstanceDate}&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;点击链接跳转至：&lt;/td&gt;
+			&lt;td&gt;&lt;strong&gt;&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"&gt;待办详情&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.TODO.EMAIL</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--[if !mso]&gt;&lt;!-- --&gt;&lt;!--&lt;![endif]--&gt;&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;!--&lt;![endif]--&gt;&lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;&lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;!--&lt;![endif]--&gt;
+&lt;div&gt;&lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+&lt;div style="margin-left:0px; margin-right:0px"&gt;
+&lt;table align="center" border="0" cellpadding="0" cellspacing="0" style="width:100%"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center; vertical-align:top"&gt;&lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+			&lt;div style="text-align:left"&gt;
+			&lt;table border="0" cellpadding="0" cellspacing="0" style="vertical-align:top; width:100%"&gt;
+				&lt;tbody&gt;
+					&lt;tr&gt;
+						&lt;td&gt;
+						&lt;div style="text-align:left"&gt;
+						&lt;div style="margin-left:0px; margin-right:0px"&gt;
+						&lt;div&gt;
+						&lt;table style="width:100%"&gt;
+							&lt;tbody&gt;
+								&lt;tr&gt;
+									&lt;td style="vertical-align:bottom"&gt;
+									&lt;table style="width:100%"&gt;
+										&lt;tbody&gt;
+											&lt;tr&gt;
+												&lt;td style="width:160px"&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" width="190" /&gt;&lt;/td&gt;
+												&lt;td style="text-align:right; vertical-align:middle"&gt;猪齿鱼数智化效能平台&lt;/td&gt;
+											&lt;/tr&gt;
+										&lt;/tbody&gt;
+									&lt;/table&gt;
+									&lt;/td&gt;
+									&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+								&lt;/tr&gt;
+							&lt;/tbody&gt;
+						&lt;/table&gt;
+						&lt;/div&gt;
+						&lt;div&gt;
+						&lt;div style="margin-left:10px; margin-right:10px"&gt;
+						&lt;p&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
+						&lt;p style="text-align:justify"&gt;您好，您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+						&lt;p style="text-align:justify"&gt;待办名称：【${backlog_num}】${summary}&lt;/p&gt;
+						&lt;/div&gt;
+						&lt;/div&gt;
+						&lt;div&gt;
+						&lt;div style="text-align:justify"&gt;
+						&lt;table style="height:148px; width:100%"&gt;
+							&lt;tbody&gt;
+								&lt;tr&gt;
+									&lt;td&gt;
+									&lt;div&gt;
+									&lt;p style="text-align:left"&gt;此邮件为系统邮件，请勿回复。&lt;/p&gt;
+									&lt;p style="text-align:left"&gt;如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a href="http://choerodon.io/zh/" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a href="https://open.hand-china.com/document-center/doc/product/10177/10419" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;帮助文档&lt;/a&gt;。&lt;/p&gt;
+									&lt;p style="text-align:left"&gt;如果您需要任何帮助或者提供反馈, 请访问 &lt;a href="https://openforum.hand-china.com/" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。&lt;/p&gt;
+									&lt;p style="text-align:left"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" rel="noopener  norefferrer" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。&lt;/p&gt;
+									&lt;/div&gt;
+									&lt;/td&gt;
+									&lt;td&gt;
+									&lt;table&gt;
+										&lt;tbody&gt;
+											&lt;tr&gt;
+												&lt;td&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/wechat-xzs.png" width="80" /&gt;&lt;/td&gt;
+											&lt;/tr&gt;
+											&lt;tr&gt;
+												&lt;td style="text-align:center"&gt;官方小助手&lt;/td&gt;
+											&lt;/tr&gt;
+										&lt;/tbody&gt;
+									&lt;/table&gt;
+									&lt;/td&gt;
+									&lt;td&gt;
+									&lt;table&gt;
+										&lt;tbody&gt;
+											&lt;tr&gt;
+												&lt;td&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/wechat-code.jpg" width="80" /&gt;&lt;/td&gt;
+											&lt;/tr&gt;
+											&lt;tr&gt;
+												&lt;td style="text-align:center"&gt;微信公众号&lt;/td&gt;
+											&lt;/tr&gt;
+										&lt;/tbody&gt;
+									&lt;/table&gt;
+									&lt;/td&gt;
+								&lt;/tr&gt;
+							&lt;/tbody&gt;
+						&lt;/table&gt;
+						&lt;/div&gt;
+						&lt;/div&gt;
+						&lt;div&gt;
+						&lt;p style="margin-left:0px; margin-right:0px; text-align:center"&gt;Copyright &amp;copy; The Choerodon Author. All rights reserved.&lt;/p&gt;
+						&lt;/div&gt;
+						&lt;/div&gt;
+						&lt;/div&gt;
+						&lt;/td&gt;
+					&lt;/tr&gt;
+				&lt;/tbody&gt;
+			&lt;/table&gt;
+			&lt;/div&gt;
+			&lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.ABNORMAL.NOTICE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.APPROVED_APPLIER</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.CARBON_COPY</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &lt;span style="font-family:微软雅黑"&gt;您有一个新的抄送事项&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"&gt;&lt;strong&gt;&lt;span style="color:#f39c12"&gt;需要处理&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;。&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;【${backlog_num}】${summary}&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;抄送来源人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionFromRealName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;strong&gt;抄送备注&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;${actionFromComment}&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.TASK_ACTION_BACK</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.TASK_WITHDRAW</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_EMAIL_APPROVE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.TODO.DINGTALK</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>您好：
         您有一个新的待办事项需要处理
 事项名称：【${backlog_num}】${summary}
 流程申请人：${startRealName}
 流程发起时间： ${startInstanceDate}
- [查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+ [查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.CARBON_COPY.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3110,7 +3174,11 @@
 事项名称：【${backlog_num}】${summary}
 抄送来源人：${actionFromRealName}
 抄送备注：${actionFromComment}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.FLOW_URGE.DINGTAL</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3119,7 +3187,11 @@
 事项名称：【${backlog_num}】${summary}
 流程申请人：${startRealName}
 流程发起时间：${startInstanceDate}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.FLOW_URGE_AUTO.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3128,7 +3200,11 @@
 事项名称：【${backlog_num}】${summary}
 流程申请人：${startRealName}
 流程发起时间：${startInstanceDate}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.REJECT_APPLIER.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3136,7 +3212,11 @@
       您有一个申请流程被拒绝。
 事项名称：【${backlog_num}】${summary}
 拒绝详情：${rejectComment}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.REJECT_APPROVER.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3144,7 +3224,11 @@
       您有一个参与处理的流程被拒绝。
 事项名称：【${backlog_num}】${summary}
 拒绝原因：${rejectComment}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.APPROVED_APPLIER.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3152,7 +3236,11 @@
       您有一个申请审批通过!
 事项名称：【${backlog_num}】${summary}
 流程发起时间：${startInstanceDate}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.TASK_ACTION_BACK.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3162,7 +3250,11 @@
 任务名称：${taskName}
 操作用户：${actionBackByPerson}
 撤回时间：${actionBackTime}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF.TASK_WITHDRAW.DINGTALK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3172,52 +3264,7 @@
 任务名称：${taskName}
 操作用户：${actionBackByPerson}
 撤回时间：${actionBackTime}
-[查看详情 ](https://${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF.TODO</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>backlog_num</t>
-  </si>
-  <si>
-    <t>domainName</t>
-  </si>
-  <si>
-    <t>startRealName</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>tenantId</t>
-  </si>
-  <si>
-    <t>rejectComment</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>actionFromComment</t>
-  </si>
-  <si>
-    <t>actionFromRealName</t>
-  </si>
-  <si>
-    <t>actionMeaning</t>
-  </si>
-  <si>
-    <t>summary</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>backlog_num</t>
+[查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3721,7 +3768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3815,6 +3862,8 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3830,12 +3879,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4204,11 +4251,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4217,21 +4264,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4342,11 +4389,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -4384,19 +4431,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="69"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="26" t="s">
@@ -4424,14 +4471,14 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="24.0703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="76"/>
+    <col min="9" max="9" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4484,7 +4531,7 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="69" t="s">
         <v>58</v>
       </c>
       <c r="J7" t="s">
@@ -4516,17 +4563,17 @@
       <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="75" t="s">
-        <v>222</v>
+      <c r="I8" s="78" t="s">
+        <v>234</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -4551,17 +4598,17 @@
       <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="74" t="s">
-        <v>223</v>
+      <c r="I9" s="78" t="s">
+        <v>211</v>
       </c>
       <c r="J9" t="s">
         <v>70</v>
@@ -4586,17 +4633,17 @@
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>224</v>
+      <c r="I10" s="78" t="s">
+        <v>212</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
@@ -4621,17 +4668,17 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="75" t="s">
-        <v>225</v>
+      <c r="I11" s="78" t="s">
+        <v>213</v>
       </c>
       <c r="J11" t="s">
         <v>70</v>
@@ -4656,17 +4703,17 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="75" t="s">
-        <v>226</v>
+      <c r="I12" s="78" t="s">
+        <v>238</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -4688,17 +4735,17 @@
       <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="F13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>227</v>
+      <c r="F13" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>240</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -4720,17 +4767,17 @@
       <c r="E14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="75" t="s">
-        <v>228</v>
+      <c r="I14" s="78" t="s">
+        <v>214</v>
       </c>
       <c r="J14" t="s">
         <v>70</v>
@@ -4755,17 +4802,17 @@
       <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="75" t="s">
-        <v>229</v>
+      <c r="I15" s="78" t="s">
+        <v>215</v>
       </c>
       <c r="J15" t="s">
         <v>70</v>
@@ -4790,17 +4837,17 @@
       <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="75" t="s">
-        <v>230</v>
+      <c r="I16" s="78" t="s">
+        <v>244</v>
       </c>
       <c r="J16" t="s">
         <v>70</v>
@@ -4825,17 +4872,17 @@
       <c r="E17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>231</v>
+      <c r="I17" s="78" t="s">
+        <v>216</v>
       </c>
       <c r="J17" t="s">
         <v>70</v>
@@ -4860,17 +4907,17 @@
       <c r="E18" t="s">
         <v>112</v>
       </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="75" t="s">
-        <v>221</v>
+      <c r="I18" s="78" t="s">
+        <v>210</v>
       </c>
       <c r="J18" t="s">
         <v>70</v>
@@ -4893,28 +4940,28 @@
     </row>
     <row r="19" spans="1:17">
       <c r="E19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>232</v>
+      <c r="I19" s="78" t="s">
+        <v>217</v>
       </c>
       <c r="J19" t="s">
         <v>70</v>
       </c>
       <c r="K19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" t="s">
         <v>116</v>
-      </c>
-      <c r="N19" t="s">
-        <v>117</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -4928,25 +4975,25 @@
     </row>
     <row r="20" spans="1:17">
       <c r="E20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="75" t="s">
-        <v>233</v>
+        <v>189</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="78" t="s">
+        <v>218</v>
       </c>
       <c r="J20" t="s">
         <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N20" t="s">
         <v>72</v>
@@ -4963,19 +5010,19 @@
     </row>
     <row r="21" spans="1:17">
       <c r="E21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="75" t="s">
-        <v>234</v>
+      <c r="I21" s="78" t="s">
+        <v>249</v>
       </c>
       <c r="J21" t="s">
         <v>70</v>
@@ -4993,24 +5040,24 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="E22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="75" t="s">
-        <v>235</v>
+      <c r="I22" s="78" t="s">
+        <v>251</v>
       </c>
       <c r="J22" t="s">
         <v>70</v>
@@ -5028,24 +5075,24 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="E23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="75" t="s">
-        <v>236</v>
+      <c r="I23" s="78" t="s">
+        <v>253</v>
       </c>
       <c r="J23" t="s">
         <v>70</v>
@@ -5063,24 +5110,24 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="E24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="75" t="s">
-        <v>237</v>
+      <c r="I24" s="78" t="s">
+        <v>255</v>
       </c>
       <c r="J24" t="s">
         <v>70</v>
@@ -5098,24 +5145,24 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="E25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="75" t="s">
-        <v>238</v>
+      <c r="I25" s="78" t="s">
+        <v>257</v>
       </c>
       <c r="J25" t="s">
         <v>70</v>
@@ -5133,24 +5180,24 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="E26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="75" t="s">
-        <v>239</v>
+      <c r="I26" s="78" t="s">
+        <v>259</v>
       </c>
       <c r="J26" t="s">
         <v>70</v>
@@ -5168,24 +5215,24 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="E27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="75" t="s">
-        <v>240</v>
+      <c r="I27" s="78" t="s">
+        <v>261</v>
       </c>
       <c r="J27" t="s">
         <v>70</v>
@@ -5203,24 +5250,24 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="E28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="75" t="s">
-        <v>241</v>
+      <c r="I28" s="78" t="s">
+        <v>263</v>
       </c>
       <c r="J28" t="s">
         <v>70</v>
@@ -5238,24 +5285,24 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="E29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="75" t="s">
-        <v>242</v>
+      <c r="I29" s="78" t="s">
+        <v>265</v>
       </c>
       <c r="J29" t="s">
         <v>70</v>
@@ -5273,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5284,43 +5331,43 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="E31" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="F31" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="G31" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="H31" t="s">
         <v>124</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="J31" t="s">
         <v>126</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>127</v>
-      </c>
-      <c r="K31" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="E32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G32" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
         <v>74</v>
@@ -5331,14 +5378,14 @@
     </row>
     <row r="33" spans="5:11">
       <c r="E33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J33" t="s">
         <v>74</v>
@@ -5349,14 +5396,14 @@
     </row>
     <row r="34" spans="5:11">
       <c r="E34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J34" t="s">
         <v>74</v>
@@ -5367,14 +5414,14 @@
     </row>
     <row r="35" spans="5:11">
       <c r="E35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
         <v>74</v>
@@ -5385,14 +5432,14 @@
     </row>
     <row r="36" spans="5:11">
       <c r="E36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G36" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J36" t="s">
         <v>74</v>
@@ -5403,14 +5450,14 @@
     </row>
     <row r="37" spans="5:11">
       <c r="E37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J37" t="s">
         <v>74</v>
@@ -5421,14 +5468,14 @@
     </row>
     <row r="38" spans="5:11">
       <c r="E38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J38" t="s">
         <v>74</v>
@@ -5439,14 +5486,14 @@
     </row>
     <row r="39" spans="5:11">
       <c r="E39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
         <v>74</v>
@@ -5457,14 +5504,14 @@
     </row>
     <row r="40" spans="5:11">
       <c r="E40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J40" t="s">
         <v>74</v>
@@ -5475,14 +5522,14 @@
     </row>
     <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J41" t="s">
         <v>74</v>
@@ -5493,14 +5540,14 @@
     </row>
     <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
         <v>74</v>
@@ -5511,14 +5558,14 @@
     </row>
     <row r="43" spans="5:11">
       <c r="E43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J43" t="s">
         <v>74</v>
@@ -5529,14 +5576,14 @@
     </row>
     <row r="44" spans="5:11">
       <c r="E44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J44" t="s">
         <v>74</v>
@@ -5547,14 +5594,14 @@
     </row>
     <row r="45" spans="5:11">
       <c r="E45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
         <v>74</v>
@@ -5565,14 +5612,14 @@
     </row>
     <row r="46" spans="5:11">
       <c r="E46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
         <v>74</v>
@@ -5583,14 +5630,14 @@
     </row>
     <row r="47" spans="5:11">
       <c r="E47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J47" t="s">
         <v>74</v>
@@ -5601,14 +5648,14 @@
     </row>
     <row r="48" spans="5:11">
       <c r="E48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
         <v>74</v>
@@ -5619,14 +5666,14 @@
     </row>
     <row r="49" spans="5:11">
       <c r="E49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G49" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J49" t="s">
         <v>74</v>
@@ -5637,14 +5684,14 @@
     </row>
     <row r="50" spans="5:11">
       <c r="E50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J50" t="s">
         <v>74</v>
@@ -5655,14 +5702,14 @@
     </row>
     <row r="51" spans="5:11">
       <c r="E51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J51" t="s">
         <v>74</v>
@@ -5673,14 +5720,14 @@
     </row>
     <row r="52" spans="5:11">
       <c r="E52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
         <v>74</v>
@@ -5691,14 +5738,14 @@
     </row>
     <row r="53" spans="5:11">
       <c r="E53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G53" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J53" t="s">
         <v>74</v>
@@ -5709,14 +5756,14 @@
     </row>
     <row r="54" spans="5:11">
       <c r="E54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J54" t="s">
         <v>74</v>
@@ -5727,14 +5774,14 @@
     </row>
     <row r="55" spans="5:11">
       <c r="E55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J55" t="s">
         <v>74</v>
@@ -5745,14 +5792,14 @@
     </row>
     <row r="56" spans="5:11">
       <c r="E56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J56" t="s">
         <v>74</v>
@@ -5763,14 +5810,14 @@
     </row>
     <row r="57" spans="5:11">
       <c r="E57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J57" t="s">
         <v>74</v>
@@ -5781,14 +5828,14 @@
     </row>
     <row r="58" spans="5:11">
       <c r="E58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
         <v>74</v>
@@ -5799,14 +5846,14 @@
     </row>
     <row r="59" spans="5:11">
       <c r="E59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="J59" t="s">
         <v>74</v>
@@ -5817,14 +5864,14 @@
     </row>
     <row r="60" spans="5:11">
       <c r="E60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J60" t="s">
         <v>74</v>
@@ -5835,14 +5882,14 @@
     </row>
     <row r="61" spans="5:11">
       <c r="E61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
         <v>74</v>
@@ -5853,14 +5900,14 @@
     </row>
     <row r="62" spans="5:11">
       <c r="E62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J62" t="s">
         <v>74</v>
@@ -5871,14 +5918,14 @@
     </row>
     <row r="63" spans="5:11">
       <c r="E63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
-      <c r="G63" s="77" t="s">
-        <v>255</v>
+      <c r="G63" s="70" t="s">
+        <v>231</v>
       </c>
       <c r="J63" t="s">
         <v>74</v>
@@ -5889,14 +5936,14 @@
     </row>
     <row r="64" spans="5:11">
       <c r="E64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J64" t="s">
         <v>74</v>
@@ -5907,14 +5954,14 @@
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J65" t="s">
         <v>74</v>
@@ -5925,14 +5972,14 @@
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
-      <c r="G66" s="77" t="s">
-        <v>256</v>
+      <c r="G66" s="70" t="s">
+        <v>232</v>
       </c>
       <c r="J66" t="s">
         <v>74</v>
@@ -5943,14 +5990,14 @@
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J67" t="s">
         <v>74</v>
@@ -5961,14 +6008,14 @@
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G68" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J68" t="s">
         <v>74</v>
@@ -5979,14 +6026,14 @@
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J69" t="s">
         <v>74</v>
@@ -5997,14 +6044,14 @@
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J70" t="s">
         <v>74</v>
@@ -6015,14 +6062,14 @@
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J71" t="s">
         <v>74</v>
@@ -6033,14 +6080,14 @@
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J72" t="s">
         <v>74</v>
@@ -6051,14 +6098,14 @@
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J73" t="s">
         <v>74</v>
@@ -6069,14 +6116,14 @@
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J74" t="s">
         <v>74</v>
@@ -6087,14 +6134,14 @@
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G75" s="77" t="s">
-        <v>256</v>
+      <c r="G75" s="70" t="s">
+        <v>232</v>
       </c>
       <c r="J75" t="s">
         <v>74</v>
@@ -6105,14 +6152,14 @@
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G76" s="77" t="s">
-        <v>255</v>
+      <c r="G76" s="70" t="s">
+        <v>231</v>
       </c>
       <c r="J76" t="s">
         <v>74</v>
@@ -6123,14 +6170,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J77" t="s">
         <v>74</v>
@@ -6141,14 +6188,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J78" t="s">
         <v>74</v>
@@ -6159,14 +6206,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J79" t="s">
         <v>74</v>
@@ -6177,14 +6224,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J80" t="s">
         <v>74</v>
@@ -6195,14 +6242,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-15</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J81" t="s">
         <v>74</v>
@@ -6213,14 +6260,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="J82" t="s">
         <v>74</v>
@@ -6231,14 +6278,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="J83" t="s">
         <v>74</v>
@@ -6249,14 +6296,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G84" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J84" t="s">
         <v>74</v>
@@ -6267,14 +6314,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J85" t="s">
         <v>74</v>
@@ -6285,14 +6332,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G86" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J86" t="s">
         <v>74</v>
@@ -6303,14 +6350,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F87" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G87" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J87" t="s">
         <v>74</v>
@@ -6321,14 +6368,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G88" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J88" t="s">
         <v>74</v>
@@ -6339,14 +6386,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J89" t="s">
         <v>74</v>
@@ -6357,14 +6404,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J90" t="s">
         <v>74</v>
@@ -6375,14 +6422,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="J91" t="s">
         <v>74</v>
@@ -6393,14 +6440,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G92" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J92" t="s">
         <v>74</v>
@@ -6411,14 +6458,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J93" t="s">
         <v>74</v>
@@ -6429,14 +6476,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J94" t="s">
         <v>74</v>
@@ -6447,14 +6494,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J95" t="s">
         <v>74</v>
@@ -6465,14 +6512,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J96" t="s">
         <v>74</v>
@@ -6483,14 +6530,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J97" t="s">
         <v>74</v>
@@ -6501,14 +6548,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G98" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J98" t="s">
         <v>74</v>
@@ -6519,14 +6566,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J99" t="s">
         <v>74</v>
@@ -6537,14 +6584,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J100" t="s">
         <v>74</v>
@@ -6555,14 +6602,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G101" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J101" t="s">
         <v>74</v>
@@ -6573,14 +6620,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J102" t="s">
         <v>74</v>
@@ -6591,14 +6638,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J103" t="s">
         <v>74</v>
@@ -6609,14 +6656,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J104" t="s">
         <v>74</v>
@@ -6627,14 +6674,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G105" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J105" t="s">
         <v>74</v>
@@ -6645,14 +6692,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J106" t="s">
         <v>74</v>
@@ -6663,14 +6710,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G107" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J107" t="s">
         <v>74</v>
@@ -6681,14 +6728,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G108" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J108" t="s">
         <v>74</v>
@@ -6699,14 +6746,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G109" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J109" t="s">
         <v>74</v>
@@ -6717,14 +6764,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G110" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="J110" t="s">
         <v>74</v>
@@ -6735,14 +6782,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G111" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="J111" t="s">
         <v>74</v>
@@ -6753,14 +6800,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G112" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J112" t="s">
         <v>74</v>
@@ -6771,14 +6818,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J113" t="s">
         <v>74</v>
@@ -6789,14 +6836,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G114" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J114" t="s">
         <v>74</v>
@@ -6807,14 +6854,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G115" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J115" t="s">
         <v>74</v>
@@ -6825,14 +6872,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G116" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J116" t="s">
         <v>74</v>
@@ -6843,14 +6890,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G117" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J117" t="s">
         <v>74</v>
@@ -6861,14 +6908,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J118" t="s">
         <v>74</v>
@@ -6879,14 +6926,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G119" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J119" t="s">
         <v>74</v>
@@ -6897,14 +6944,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J120" t="s">
         <v>74</v>
@@ -6915,14 +6962,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G121" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J121" t="s">
         <v>74</v>
@@ -6933,14 +6980,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G122" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J122" t="s">
         <v>74</v>
@@ -6951,14 +6998,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G123" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J123" t="s">
         <v>74</v>
@@ -6969,14 +7016,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G124" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J124" t="s">
         <v>74</v>
@@ -6987,14 +7034,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F125" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J125" t="s">
         <v>74</v>
@@ -7005,14 +7052,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G126" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J126" t="s">
         <v>74</v>
@@ -7023,14 +7070,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J127" t="s">
         <v>74</v>
@@ -7041,14 +7088,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G128" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J128" t="s">
         <v>74</v>
@@ -7059,14 +7106,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G129" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J129" t="s">
         <v>74</v>
@@ -7077,14 +7124,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G130" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J130" t="s">
         <v>74</v>
@@ -7095,14 +7142,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G131" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J131" t="s">
         <v>74</v>
@@ -7113,14 +7160,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J132" t="s">
         <v>74</v>
@@ -7131,14 +7178,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G133" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J133" t="s">
         <v>74</v>
@@ -7149,14 +7196,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G134" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J134" t="s">
         <v>74</v>
@@ -7167,14 +7214,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G135" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J135" t="s">
         <v>74</v>
@@ -7185,14 +7232,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-25</v>
       </c>
       <c r="G136" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J136" t="s">
         <v>74</v>
@@ -7203,14 +7250,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G137" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J137" t="s">
         <v>74</v>
@@ -7221,14 +7268,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J138" t="s">
         <v>74</v>
@@ -7239,14 +7286,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G139" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J139" t="s">
         <v>74</v>
@@ -7257,14 +7304,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G140" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J140" t="s">
         <v>74</v>
@@ -7275,14 +7322,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G141" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J141" t="s">
         <v>74</v>
@@ -7293,14 +7340,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-26</v>
       </c>
       <c r="G142" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J142" t="s">
         <v>74</v>
@@ -7311,14 +7358,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
       <c r="G143" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J143" t="s">
         <v>74</v>
@@ -7329,14 +7376,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
       <c r="G144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J144" t="s">
         <v>74</v>
@@ -7347,14 +7394,14 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
       <c r="G145" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J145" t="s">
         <v>74</v>
@@ -7365,14 +7412,14 @@
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F146" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
       <c r="G146" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J146" t="s">
         <v>74</v>
@@ -7383,14 +7430,14 @@
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F147" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
       <c r="G147" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J147" t="s">
         <v>74</v>
@@ -7401,14 +7448,14 @@
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F148" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-27</v>
       </c>
       <c r="G148" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J148" t="s">
         <v>74</v>
@@ -7419,14 +7466,14 @@
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F149" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J149" t="s">
         <v>74</v>
@@ -7437,14 +7484,14 @@
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F150" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J150" t="s">
         <v>74</v>
@@ -7455,14 +7502,14 @@
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F151" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G151" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="J151" t="s">
         <v>74</v>
@@ -7473,14 +7520,14 @@
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F152" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G152" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J152" t="s">
         <v>74</v>
@@ -7491,14 +7538,14 @@
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F153" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J153" t="s">
         <v>74</v>
@@ -7509,14 +7556,14 @@
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F154" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G154" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J154" t="s">
         <v>74</v>
@@ -7527,14 +7574,14 @@
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F155" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G155" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J155" t="s">
         <v>74</v>
@@ -7545,14 +7592,14 @@
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F156" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J156" t="s">
         <v>74</v>
@@ -7563,14 +7610,14 @@
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$28</f>
         <v>hmsg_message_template-28</v>
       </c>
       <c r="G157" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J157" t="s">
         <v>74</v>
@@ -7581,14 +7628,14 @@
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F158" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J158" t="s">
         <v>74</v>
@@ -7599,14 +7646,14 @@
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G159" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J159" t="s">
         <v>74</v>
@@ -7617,14 +7664,14 @@
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F160" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G160" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J160" t="s">
         <v>74</v>
@@ -7635,14 +7682,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J161" t="s">
         <v>74</v>
@@ -7653,14 +7700,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G162" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J162" t="s">
         <v>74</v>
@@ -7671,14 +7718,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F163" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G163" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="J163" t="s">
         <v>74</v>
@@ -7689,14 +7736,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J164" t="s">
         <v>74</v>
@@ -7707,14 +7754,14 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-29</v>
       </c>
       <c r="G165" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J165" t="s">
         <v>74</v>
@@ -7770,28 +7817,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="E7" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="F7" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="G7" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="H7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="I7" t="s">
         <v>145</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>146</v>
-      </c>
-      <c r="J7" t="s">
-        <v>147</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
@@ -7799,7 +7846,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -7811,10 +7858,10 @@
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
         <v>73</v>
@@ -7822,7 +7869,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -7845,7 +7892,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -7868,7 +7915,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="E11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -7891,7 +7938,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="E12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -7903,10 +7950,10 @@
         <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
@@ -7914,7 +7961,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="E13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -7937,7 +7984,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="E14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
         <v>74</v>
@@ -7960,7 +8007,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
@@ -7972,10 +8019,10 @@
         <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
         <v>73</v>
@@ -7983,7 +8030,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="E16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
         <v>74</v>
@@ -7995,10 +8042,10 @@
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>73</v>
@@ -8006,7 +8053,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="E17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
         <v>74</v>
@@ -8018,10 +8065,10 @@
         <v>109</v>
       </c>
       <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
         <v>162</v>
-      </c>
-      <c r="J17" t="s">
-        <v>163</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
@@ -8035,52 +8082,52 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="E19" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="G19" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="H19" t="s">
         <v>168</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="J19" t="s">
         <v>170</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>171</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>172</v>
-      </c>
-      <c r="L19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="E20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
         <v>74</v>
@@ -8094,34 +8141,34 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="F22" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="G22" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="H22" t="s">
         <v>168</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="J22" t="s">
         <v>170</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>171</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>172</v>
-      </c>
-      <c r="L22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -8132,46 +8179,46 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="F24" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="G24" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="H24" t="s">
         <v>168</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>169</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>170</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>171</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="E25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
         <v>93</v>
@@ -8182,14 +8229,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="E26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
@@ -8200,14 +8247,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="E27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
@@ -8218,14 +8265,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="E28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
         <v>89</v>
@@ -8236,14 +8283,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="E29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
         <v>109</v>
@@ -8254,14 +8301,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="E30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
         <v>81</v>
@@ -8272,14 +8319,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="E31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
         <v>77</v>
@@ -8290,14 +8337,14 @@
     </row>
     <row r="32" spans="1:12">
       <c r="E32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
         <v>101</v>
@@ -8308,14 +8355,14 @@
     </row>
     <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H33" t="s">
         <v>105</v>
@@ -8326,14 +8373,14 @@
     </row>
     <row r="34" spans="5:12">
       <c r="E34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F34" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H34" t="s">
         <v>68</v>
@@ -8345,5 +8392,6 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/z_cwkf_hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/z_cwkf_hzero-message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hand\choerodon\workflow-service\src\main\resources\script\db\init-data\workflow_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA266F3E-BE1A-4AB8-A47A-F37F85887A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B41F18-9E4E-4120-9521-58BB6C5CDF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2965,138 +2965,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;!--[if !mso]&gt;&lt;!-- --&gt;&lt;!--&lt;![endif]--&gt;&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;!--&lt;![endif]--&gt;&lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;&lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix { width:100% !important; }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;&lt;!--[if !mso]&gt;&lt;!--&gt;&lt;!--&lt;![endif]--&gt;
-&lt;div&gt;&lt;!--[if mso | IE]&gt;
-  &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
-  &gt;
-    &lt;tr&gt;
-      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-  &lt;![endif]--&gt;
-&lt;div style="margin-left:0px; margin-right:0px"&gt;
-&lt;table align="center" border="0" cellpadding="0" cellspacing="0" style="width:100%"&gt;
-	&lt;tbody&gt;
-		&lt;tr&gt;
-			&lt;td style="text-align:center; vertical-align:top"&gt;&lt;!--[if mso | IE]&gt;
-          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-            &lt;tr&gt;
-              &lt;td
-                      class="" style="vertical-align:top;width:782px;"
-              &gt;
-          &lt;![endif]--&gt;
-			&lt;div style="text-align:left"&gt;
-			&lt;table border="0" cellpadding="0" cellspacing="0" style="vertical-align:top; width:100%"&gt;
-				&lt;tbody&gt;
-					&lt;tr&gt;
-						&lt;td&gt;
-						&lt;div style="text-align:left"&gt;
-						&lt;div style="margin-left:0px; margin-right:0px"&gt;
-						&lt;div&gt;
-						&lt;table style="width:100%"&gt;
-							&lt;tbody&gt;
-								&lt;tr&gt;
-									&lt;td style="vertical-align:bottom"&gt;
-									&lt;table style="width:100%"&gt;
-										&lt;tbody&gt;
-											&lt;tr&gt;
-												&lt;td style="width:160px"&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" width="190" /&gt;&lt;/td&gt;
-												&lt;td style="text-align:right; vertical-align:middle"&gt;猪齿鱼数智化效能平台&lt;/td&gt;
-											&lt;/tr&gt;
-										&lt;/tbody&gt;
-									&lt;/table&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&amp;nbsp;&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/tbody&gt;
-						&lt;/table&gt;
-						&lt;/div&gt;
-						&lt;div&gt;
-						&lt;div style="margin-left:10px; margin-right:10px"&gt;
-						&lt;p&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
-						&lt;p style="text-align:justify"&gt;您好，您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
-						&lt;p style="text-align:justify"&gt;待办名称：【${backlog_num}】${summary}&lt;/p&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;div&gt;
-						&lt;div style="text-align:justify"&gt;
-						&lt;table style="height:148px; width:100%"&gt;
-							&lt;tbody&gt;
-								&lt;tr&gt;
-									&lt;td&gt;
-									&lt;div&gt;
-									&lt;p style="text-align:left"&gt;此邮件为系统邮件，请勿回复。&lt;/p&gt;
-									&lt;p style="text-align:left"&gt;如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a href="http://choerodon.io/zh/" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a href="https://open.hand-china.com/document-center/doc/product/10177/10419" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;帮助文档&lt;/a&gt;。&lt;/p&gt;
-									&lt;p style="text-align:left"&gt;如果您需要任何帮助或者提供反馈, 请访问 &lt;a href="https://openforum.hand-china.com/" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。&lt;/p&gt;
-									&lt;p style="text-align:left"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" rel="noopener  norefferrer" style="text-decoration:none;font-size: 12px;color: #5365EA;" target="_blank"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。&lt;/p&gt;
-									&lt;/div&gt;
-									&lt;/td&gt;
-									&lt;td&gt;
-									&lt;table&gt;
-										&lt;tbody&gt;
-											&lt;tr&gt;
-												&lt;td&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/wechat-xzs.png" width="80" /&gt;&lt;/td&gt;
-											&lt;/tr&gt;
-											&lt;tr&gt;
-												&lt;td style="text-align:center"&gt;官方小助手&lt;/td&gt;
-											&lt;/tr&gt;
-										&lt;/tbody&gt;
-									&lt;/table&gt;
-									&lt;/td&gt;
-									&lt;td&gt;
-									&lt;table&gt;
-										&lt;tbody&gt;
-											&lt;tr&gt;
-												&lt;td&gt;&lt;img alt="" height="auto" src="https://file.choerodon.com.cn/static/wechat-code.jpg" width="80" /&gt;&lt;/td&gt;
-											&lt;/tr&gt;
-											&lt;tr&gt;
-												&lt;td style="text-align:center"&gt;微信公众号&lt;/td&gt;
-											&lt;/tr&gt;
-										&lt;/tbody&gt;
-									&lt;/table&gt;
-									&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/tbody&gt;
-						&lt;/table&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;div&gt;
-						&lt;p style="margin-left:0px; margin-right:0px; text-align:center"&gt;Copyright &amp;copy; The Choerodon Author. All rights reserved.&lt;/p&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;/div&gt;
-						&lt;/td&gt;
-					&lt;/tr&gt;
-				&lt;/tbody&gt;
-			&lt;/table&gt;
-			&lt;/div&gt;
-			&lt;!--[if mso | IE]&gt;
-          &lt;/td&gt;
-          &lt;/tr&gt;
-          &lt;/table&gt;
-          &lt;![endif]--&gt;&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;!--[if mso | IE]&gt;
-  &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;/table&gt;
-  &lt;![endif]--&gt;&lt;/div&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>HWKF.ABNORMAL.NOTICE</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3265,6 +3133,235 @@
 操作用户：${actionBackByPerson}
 撤回时间：${actionBackTime}
 [查看详情 ](${domainName}/#/workbench?id=${tenantId}&amp;type=organization)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      
+&lt;title&gt; &lt;/title&gt;
+&lt;!--[if !mso]&gt;&lt;!-- --&gt;
+&lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+&lt;!--&lt;![endif]--&gt;
+&lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+&lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+&lt;style type="text/css"&gt;
+  #outlook a {
+    padding: 0;
+  }
+  .ReadMsgBody {
+    width: 100%;
+  }
+  .ExternalClass {
+    width: 100%;
+  }
+  .ExternalClass * {
+    line-height: 100%;
+  }
+  body {
+    margin: 0;
+    padding: 0;
+    -webkit-text-size-adjust: 100%;
+    -ms-text-size-adjust: 100%;
+  }
+  table,
+  td {
+    border-collapse: collapse;
+    mso-table-lspace: 0pt;
+    mso-table-rspace: 0pt;
+  }
+  img {
+    border: 0;
+    height: auto;
+    line-height: 100%;
+    outline: none;
+    text-decoration: none;
+    -ms-interpolation-mode: bicubic;
+  }
+  p {
+    display: block;
+    margin: 13px 0;
+  }
+&lt;/style&gt;
+&lt;!--[if !mso]&gt;&lt;!--&gt;
+&lt;style type="text/css"&gt;
+  @media only screen and (max-width:480px) {
+    @-ms-viewport {
+      width: 320px;
+    }
+    @viewport {
+      width: 320px;
+    }
+  }
+&lt;/style&gt;
+&lt;!--&lt;![endif]--&gt;
+&lt;!--[if mso]&gt;
+&lt;xml&gt;
+  &lt;o:OfficeDocumentSettings&gt;
+    &lt;o:AllowPNG/&gt;
+    &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+  &lt;/o:OfficeDocumentSettings&gt;
+&lt;/xml&gt;
+&lt;![endif]--&gt;
+&lt;!--[if lte mso 11]&gt;
+&lt;style type="text/css"&gt;
+  .outlook-group-fix { width:100% !important; }
+&lt;/style&gt;
+&lt;![endif]--&gt;
+&lt;!--[if !mso]&gt;&lt;!--&gt;
+&lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+&lt;style type="text/css"&gt;
+  @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+&lt;/style&gt;
+&lt;!--&lt;![endif]--&gt;
+&lt;style type="text/css"&gt;
+  @media only screen and (min-width:480px) {
+    .mj-column-per-100 {
+      width: 100% !important;
+      max-width: 100%;
+    }
+  }
+&lt;/style&gt;
+&lt;style type="text/css"&gt;
+&lt;/style&gt;
+&lt;/head&gt;&lt;body&gt;&lt;div style=""&gt;
+&lt;!--[if mso | IE]&gt;
+&lt;table
+        align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+&gt;
+  &lt;tr&gt;
+    &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+&lt;![endif]--&gt;
+&lt;div style="Margin:0px auto;max-width:782px;"&gt;
+  &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+    &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+        &lt;!--[if mso | IE]&gt;
+        &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+          &lt;tr&gt;
+            &lt;td
+                    class="" style="vertical-align:top;width:782px;"
+            &gt;
+        &lt;![endif]--&gt;
+        &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+            &lt;tbody&gt;&lt;tr&gt;
+              &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                &lt;div style="line-height: 1; text-align: left;"&gt;
+                  &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                    &lt;div style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
+                      &lt;table style="width: 100%;"&gt;
+                        &lt;tbody&gt;&lt;tr&gt;
+                          &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
+                            &lt;table style="width: 100%;"&gt;
+                              &lt;tbody&gt;&lt;tr&gt;
+                                &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                              &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
+                            &lt;/tbody&gt;&lt;/table&gt;
+                          &lt;/td&gt;&lt;td&gt;
+                          &lt;/td&gt;
+                        &lt;/tr&gt;
+                      &lt;/tbody&gt;&lt;/table&gt;
+                    &lt;/div&gt;
+                    &lt;div style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
+                      &lt;div style="margin: 0px 10px"&gt;
+                       &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
+                        &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;您好，您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+                        &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;待办名称：【${backlog_num}】${summary}&lt;/p&gt;
+                      &lt;/div&gt;
+                      &lt;br&gt;
+                    &lt;/div&gt;
+                    &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="text-align: justify;"&gt;
+                        &lt;table style="height: 148px;width: 100%;"&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td&gt;
+                              &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
+                                &lt;p style="
+    font-size: 13px;
+    color: rgba(15,19,88,0.80);
+    letter-spacing: 0;
+    text-align: left;
+    margin-bottom: 6px;
+    margin-top: 0;
+    border-width: 1px;
+    "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                &lt;p style="
+    font-size: 13px;
+    color: rgba(15,19,88,0.80);
+    letter-spacing: 0;
+    text-align: left;
+    margin-bottom: 6px;
+    margin-top: 0;
+    "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/%E4%BB%8B%E7%BB%8D/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                &lt;p style="font-size: 13px;
+    color: rgba(15,19,88,0.80);
+    letter-spacing: 0;
+    text-align: left;
+    margin-bottom: 6px;
+    margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                &lt;p style="font-size: 13px;
+    color: rgba(15,19,88,0.80);
+    letter-spacing: 0;
+    text-align: left;
+    margin-bottom: 6px;
+        margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱&lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;td style="padding-left: 19px;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                &lt;tr&gt;
+                                  &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                &lt;tr&gt;
+                                  &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;p style="
+    opacity: 0.8;
+    font-size: 10px;
+    color: rgba(15,19,88,0.65);
+    text-align: center;
+    display: inline-block;
+    line-height: 34px;
+    width: 100%;
+    margin: 0 auto;
+    "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/div&gt;
+              &lt;/td&gt;
+            &lt;/tr&gt;
+          &lt;/tbody&gt;&lt;/table&gt;
+        &lt;/div&gt;
+        &lt;!--[if mso | IE]&gt;
+        &lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;/table&gt;
+        &lt;![endif]--&gt;
+      &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;/tbody&gt;
+  &lt;/table&gt;&lt;br&gt;
+&lt;/div&gt;
+&lt;!--[if mso | IE]&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;![endif]--&gt;
+&lt;/div&gt;
+  </t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3864,6 +3961,10 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3879,10 +3980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4251,11 +4348,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4264,21 +4361,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4389,11 +4486,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -4431,19 +4528,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="75"/>
     </row>
     <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="26" t="s">
@@ -4471,12 +4568,12 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="24.0703125" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="69"/>
   </cols>
@@ -4563,16 +4660,16 @@
       <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="73" t="s">
         <v>234</v>
       </c>
       <c r="J8" t="s">
@@ -4598,16 +4695,16 @@
       <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="73" t="s">
         <v>211</v>
       </c>
       <c r="J9" t="s">
@@ -4633,16 +4730,16 @@
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="73" t="s">
         <v>212</v>
       </c>
       <c r="J10" t="s">
@@ -4668,16 +4765,16 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="73" t="s">
         <v>213</v>
       </c>
       <c r="J11" t="s">
@@ -4703,16 +4800,16 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="73" t="s">
         <v>238</v>
       </c>
       <c r="K12" t="s">
@@ -4735,17 +4832,17 @@
       <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="78" t="s">
-        <v>240</v>
+      <c r="I13" s="73" t="s">
+        <v>265</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -4767,16 +4864,16 @@
       <c r="E14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" s="77" t="s">
+      <c r="F14" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="73" t="s">
         <v>214</v>
       </c>
       <c r="J14" t="s">
@@ -4802,16 +4899,16 @@
       <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="77" t="s">
+      <c r="F15" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="73" t="s">
         <v>215</v>
       </c>
       <c r="J15" t="s">
@@ -4837,17 +4934,17 @@
       <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="73" t="s">
         <v>243</v>
-      </c>
-      <c r="G16" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="78" t="s">
-        <v>244</v>
       </c>
       <c r="J16" t="s">
         <v>70</v>
@@ -4872,16 +4969,16 @@
       <c r="E17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="77" t="s">
+      <c r="F17" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="73" t="s">
         <v>216</v>
       </c>
       <c r="J17" t="s">
@@ -4907,16 +5004,16 @@
       <c r="E18" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="77" t="s">
+      <c r="F18" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="73" t="s">
         <v>210</v>
       </c>
       <c r="J18" t="s">
@@ -4942,16 +5039,16 @@
       <c r="E19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" s="77" t="s">
+      <c r="F19" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="73" t="s">
         <v>217</v>
       </c>
       <c r="J19" t="s">
@@ -4977,16 +5074,16 @@
       <c r="E20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="77" t="s">
+      <c r="F20" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="73" t="s">
         <v>218</v>
       </c>
       <c r="J20" t="s">
@@ -5012,17 +5109,17 @@
       <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="73" t="s">
         <v>248</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="78" t="s">
-        <v>249</v>
       </c>
       <c r="J21" t="s">
         <v>70</v>
@@ -5047,17 +5144,17 @@
       <c r="E22" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="73" t="s">
         <v>250</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="78" t="s">
-        <v>251</v>
       </c>
       <c r="J22" t="s">
         <v>70</v>
@@ -5082,17 +5179,17 @@
       <c r="E23" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="73" t="s">
         <v>252</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>253</v>
       </c>
       <c r="J23" t="s">
         <v>70</v>
@@ -5117,17 +5214,17 @@
       <c r="E24" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="73" t="s">
         <v>254</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="78" t="s">
-        <v>255</v>
       </c>
       <c r="J24" t="s">
         <v>70</v>
@@ -5152,17 +5249,17 @@
       <c r="E25" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="73" t="s">
         <v>256</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="78" t="s">
-        <v>257</v>
       </c>
       <c r="J25" t="s">
         <v>70</v>
@@ -5187,17 +5284,17 @@
       <c r="E26" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="73" t="s">
         <v>258</v>
-      </c>
-      <c r="G26" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="78" t="s">
-        <v>259</v>
       </c>
       <c r="J26" t="s">
         <v>70</v>
@@ -5222,17 +5319,17 @@
       <c r="E27" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="73" t="s">
         <v>260</v>
-      </c>
-      <c r="G27" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="78" t="s">
-        <v>261</v>
       </c>
       <c r="J27" t="s">
         <v>70</v>
@@ -5257,17 +5354,17 @@
       <c r="E28" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="73" t="s">
         <v>262</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>263</v>
       </c>
       <c r="J28" t="s">
         <v>70</v>
@@ -5292,17 +5389,17 @@
       <c r="E29" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="73" t="s">
         <v>264</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="H29" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="78" t="s">
-        <v>265</v>
       </c>
       <c r="J29" t="s">
         <v>70</v>
@@ -7773,6 +7870,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/z_cwkf_hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/z_cwkf_hzero-message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hand\choerodon\workflow-service\src\main\resources\script\db\init-data\workflow_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B41F18-9E4E-4120-9521-58BB6C5CDF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3DD72C-3CF3-457F-A0B3-9A1C26CF5C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3136,232 +3136,193 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      
-&lt;title&gt; &lt;/title&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
 &lt;!--[if !mso]&gt;&lt;!-- --&gt;
 &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
 &lt;!--&lt;![endif]--&gt;
 &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
 &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
 &lt;style type="text/css"&gt;
-  #outlook a {
-    padding: 0;
-  }
-  .ReadMsgBody {
-    width: 100%;
-  }
-  .ExternalClass {
-    width: 100%;
-  }
-  .ExternalClass * {
-    line-height: 100%;
-  }
-  body {
-    margin: 0;
-    padding: 0;
-    -webkit-text-size-adjust: 100%;
-    -ms-text-size-adjust: 100%;
-  }
-  table,
-  td {
-    border-collapse: collapse;
-    mso-table-lspace: 0pt;
-    mso-table-rspace: 0pt;
-  }
-  img {
-    border: 0;
-    height: auto;
-    line-height: 100%;
-    outline: none;
-    text-decoration: none;
-    -ms-interpolation-mode: bicubic;
-  }
-  p {
-    display: block;
-    margin: 13px 0;
-  }
+    #outlook a {
+        padding: 0;
+    }
+    .ReadMsgBody {
+        width: 100%;
+    }
+    .ExternalClass {
+        width: 100%;
+    }
+    .ExternalClass * {
+        line-height: 100%;
+    }
+    body {
+        margin: 0;
+        padding: 0;
+        -webkit-text-size-adjust: 100%;
+        -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+        border-collapse: collapse;
+        mso-table-lspace: 0pt;
+        mso-table-rspace: 0pt;
+    }
+    img {
+        border: 0;
+        height: auto;
+        line-height: 100%;
+        outline: none;
+        text-decoration: none;
+        -ms-interpolation-mode: bicubic;
+    }
+    p {
+        display: block;
+        margin: 13px 0;
+    }
 &lt;/style&gt;
 &lt;!--[if !mso]&gt;&lt;!--&gt;
 &lt;style type="text/css"&gt;
-  @media only screen and (max-width:480px) {
-    @-ms-viewport {
-      width: 320px;
+    @media only screen and (max-width:480px) {
+        @-ms-viewport {
+            width: 320px;
+        }
+        @viewport {
+            width: 320px;
+        }
     }
-    @viewport {
-      width: 320px;
-    }
-  }
 &lt;/style&gt;
 &lt;!--&lt;![endif]--&gt;
 &lt;!--[if mso]&gt;
 &lt;xml&gt;
-  &lt;o:OfficeDocumentSettings&gt;
-    &lt;o:AllowPNG/&gt;
-    &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-  &lt;/o:OfficeDocumentSettings&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+        &lt;o:AllowPNG/&gt;
+        &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
 &lt;/xml&gt;
 &lt;![endif]--&gt;
 &lt;!--[if lte mso 11]&gt;
 &lt;style type="text/css"&gt;
-  .outlook-group-fix { width:100% !important; }
+    .outlook-group-fix { width:100% !important; }
 &lt;/style&gt;
 &lt;![endif]--&gt;
 &lt;!--[if !mso]&gt;&lt;!--&gt;
 &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
 &lt;style type="text/css"&gt;
-  @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
 &lt;/style&gt;
 &lt;!--&lt;![endif]--&gt;
 &lt;style type="text/css"&gt;
-  @media only screen and (min-width:480px) {
-    .mj-column-per-100 {
-      width: 100% !important;
-      max-width: 100%;
+    @media only screen and (min-width:480px) {
+        .mj-column-per-100 {
+            width: 100% !important;
+            max-width: 100%;
+        }
     }
-  }
 &lt;/style&gt;
 &lt;style type="text/css"&gt;
 &lt;/style&gt;
-&lt;/head&gt;&lt;body&gt;&lt;div style=""&gt;
-&lt;!--[if mso | IE]&gt;
-&lt;table
-        align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
-&gt;
-  &lt;tr&gt;
-    &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-&lt;![endif]--&gt;
-&lt;div style="Margin:0px auto;max-width:782px;"&gt;
-  &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-    &lt;tbody&gt;
-    &lt;tr&gt;
-      &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div style=""&gt;
         &lt;!--[if mso | IE]&gt;
-        &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-          &lt;tr&gt;
-            &lt;td
-                    class="" style="vertical-align:top;width:782px;"
-            &gt;
-        &lt;![endif]--&gt;
-        &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
-            &lt;tbody&gt;&lt;tr&gt;
-              &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
-                &lt;div style="line-height: 1; text-align: left;"&gt;
-                  &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
-                    &lt;div style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
-                      &lt;table style="width: 100%;"&gt;
-                        &lt;tbody&gt;&lt;tr&gt;
-                          &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
-                            &lt;table style="width: 100%;"&gt;
-                              &lt;tbody&gt;&lt;tr&gt;
-                                &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                              &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
-                            &lt;/tbody&gt;&lt;/table&gt;
-                          &lt;/td&gt;&lt;td&gt;
-                          &lt;/td&gt;
-                        &lt;/tr&gt;
-                      &lt;/tbody&gt;&lt;/table&gt;
-                    &lt;/div&gt;
-                    &lt;div style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
-                      &lt;div style="margin: 0px 10px"&gt;
-                       &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
-                        &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;您好，您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
-                        &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;待办名称：【${backlog_num}】${summary}&lt;/p&gt;
-                      &lt;/div&gt;
-                      &lt;br&gt;
-                    &lt;/div&gt;
-                    &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
-                      &lt;div style="text-align: justify;"&gt;
-                        &lt;table style="height: 148px;width: 100%;"&gt;
-                          &lt;tbody&gt;&lt;tr&gt;
-                            &lt;td&gt;
-                              &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
-                                &lt;p style="
-    font-size: 13px;
-    color: rgba(15,19,88,0.80);
-    letter-spacing: 0;
-    text-align: left;
-    margin-bottom: 6px;
-    margin-top: 0;
-    border-width: 1px;
-    "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                &lt;p style="
-    font-size: 13px;
-    color: rgba(15,19,88,0.80);
-    letter-spacing: 0;
-    text-align: left;
-    margin-bottom: 6px;
-    margin-top: 0;
-    "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/%E4%BB%8B%E7%BB%8D/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                &lt;p style="font-size: 13px;
-    color: rgba(15,19,88,0.80);
-    letter-spacing: 0;
-    text-align: left;
-    margin-bottom: 6px;
-    margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                &lt;p style="font-size: 13px;
-    color: rgba(15,19,88,0.80);
-    letter-spacing: 0;
-    text-align: left;
-    margin-bottom: 6px;
-        margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱&lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
-                              &lt;/div&gt;
-                            &lt;/td&gt;
-                          &lt;td style="padding-left: 19px;"&gt;
-                              &lt;table&gt;
-                                &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                &lt;tr&gt;
-                                  &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
-                                &lt;/tr&gt;
-                              &lt;/tbody&gt;&lt;/table&gt;
-                            &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
-                              &lt;table&gt;
-                                &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                &lt;tr&gt;
-                                  &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
-                                &lt;/tr&gt;
-                              &lt;/tbody&gt;&lt;/table&gt;
-                            &lt;/td&gt;&lt;/tr&gt;
-                        &lt;/tbody&gt;&lt;/table&gt;
-                      &lt;/div&gt;
-                    &lt;/div&gt;
-                    &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
-                      &lt;p style="
-    opacity: 0.8;
-    font-size: 10px;
-    color: rgba(15,19,88,0.65);
-    text-align: center;
-    display: inline-block;
-    line-height: 34px;
-    width: 100%;
-    margin: 0 auto;
-    "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                    &lt;/div&gt;
-                  &lt;/div&gt;
-                &lt;/div&gt;
-              &lt;/td&gt;
-            &lt;/tr&gt;
-          &lt;/tbody&gt;&lt;/table&gt;
-        &lt;/div&gt;
-        &lt;!--[if mso | IE]&gt;
+    &lt;table
+            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+    &gt;
+        &lt;tr&gt;
+            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+    &lt;![endif]--&gt;
+        &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+            &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+                &lt;tbody&gt;
+                    &lt;tr&gt;
+                        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+                            &lt;!--[if mso | IE]&gt;
+                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+                        &lt;tr&gt;
+                            &lt;td
+                                    class="" style="vertical-align:top;width:782px;"
+                            &gt;
+                    &lt;![endif]--&gt;
+                            &lt;div class="mj-column-per-100 outlook-group-fix"
+                                style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
+                                    style="vertical-align:top;" width="100%"&gt;
+                                    &lt;tbody&gt;
+                                        &lt;tr&gt;
+                                            &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                                                &lt;div style="line-height: 1; text-align: left;"&gt;
+                                                    &lt;div
+                                                        style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                                                        &lt;div
+                                                            style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
+                                                            &lt;table style="width: 100%;"&gt;
+                                                                &lt;tbody&gt;
+                                                                    &lt;tr&gt;
+                                                                        &lt;td
+                                                                            style="padding-bottom: 20px;vertical-align: bottom;"&gt;
+                                                                            &lt;table style="width: 100%;"&gt;
+                                                                                &lt;tbody&gt;
+                                                                                    &lt;tr&gt;
+                                                                                        &lt;td&gt; &lt;img src="${choerodonLogo}"
+                                                                                                style="border:0;display:block;outline:none;text-decoration:none;height: 36px ; width: auto"&gt;
+                                                                                        &lt;/td&gt;
+                                                                                        &lt;td
+                                                                                            style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt;
+                                                                                            ${choerodonSlogan}&lt;/td&gt;
+                                                                                    &lt;/tr&gt;
+                                                                                &lt;/tbody&gt;
+                                                                            &lt;/table&gt;
+                                                                        &lt;/td&gt;
+                                                                        &lt;td&gt;
+                                                                        &lt;/td&gt;
+                                                                    &lt;/tr&gt;
+                                                                &lt;/tbody&gt;
+                                                            &lt;/table&gt;
+                                                        &lt;/div&gt;
+                                                        &lt;div
+                                                            style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
+                                                            &lt;div style="margin: 0px 10px"&gt;
+                                                                &lt;p
+                                                                    style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;
+                                                                    猪齿鱼通知-工作流待办事项&lt;/p&gt;
+                                                                &lt;p
+                                                                    style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;
+                                                                    您好，您有一个新的待办事项需要&lt;a
+                                                                        href="${domainName}/#/workbench?id=${tenantId}&amp;amp;type=organization"
+                                                                        style="text-decoration:none;color: #5365EA"
+                                                                        target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+                                                                &lt;p
+                                                                    style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;
+                                                                    待办名称：【${backlog_num}】${summary}&lt;/p&gt;
+                                                            &lt;/div&gt;
+                                                            &lt;br&gt;
+                                                        &lt;/div&gt;
+                                                        ${choerodonFooter}
+                                                    &lt;/div&gt;
+                                                &lt;/div&gt;
+                                            &lt;/td&gt;
+                                        &lt;/tr&gt;
+                                    &lt;/tbody&gt;
+                                &lt;/table&gt;
+                            &lt;/div&gt;
+                            &lt;!--[if mso | IE]&gt;
         &lt;/td&gt;
         &lt;/tr&gt;
         &lt;/table&gt;
         &lt;![endif]--&gt;
-      &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/tbody&gt;
-  &lt;/table&gt;&lt;br&gt;
-&lt;/div&gt;
-&lt;!--[if mso | IE]&gt;
+                        &lt;/td&gt;
+                    &lt;/tr&gt;
+                &lt;/tbody&gt;
+            &lt;/table&gt;
+            &lt;br /&gt;
+        &lt;/div&gt;
+        &lt;!--[if mso | IE]&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
 &lt;/table&gt;
 &lt;![endif]--&gt;
-&lt;/div&gt;
-  </t>
+    &lt;/div&gt;
+&lt;/body&gt;</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3865,7 +3826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3873,9 +3834,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3890,31 +3850,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3959,25 +3918,20 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4333,7 +4287,7 @@
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.35546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.35546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
@@ -4347,79 +4301,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="76" t="s">
+      <c r="A1" s="3"/>
+      <c r="C1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="49.5">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4427,56 +4381,54 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="66">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="33">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4486,64 +4438,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="75"/>
+      <c r="E25" s="68"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="75"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="3:5" ht="49.5">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4568,38 +4520,37 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="39.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4613,13 +4564,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4628,7 +4579,7 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
       <c r="J7" t="s">
@@ -4643,13 +4594,13 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="42" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="43" t="s">
         <v>65</v>
       </c>
       <c r="Q7" t="s">
@@ -4660,16 +4611,16 @@
       <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="67" t="s">
         <v>234</v>
       </c>
       <c r="J8" t="s">
@@ -4695,16 +4646,16 @@
       <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="67" t="s">
         <v>211</v>
       </c>
       <c r="J9" t="s">
@@ -4730,16 +4681,16 @@
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="67" t="s">
         <v>212</v>
       </c>
       <c r="J10" t="s">
@@ -4765,16 +4716,16 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="67" t="s">
         <v>213</v>
       </c>
       <c r="J11" t="s">
@@ -4800,16 +4751,16 @@
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="67" t="s">
         <v>238</v>
       </c>
       <c r="K12" t="s">
@@ -4832,16 +4783,16 @@
       <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="67" t="s">
         <v>265</v>
       </c>
       <c r="K13" t="s">
@@ -4864,16 +4815,16 @@
       <c r="E14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="67" t="s">
         <v>214</v>
       </c>
       <c r="J14" t="s">
@@ -4899,16 +4850,16 @@
       <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="67" t="s">
         <v>215</v>
       </c>
       <c r="J15" t="s">
@@ -4934,16 +4885,16 @@
       <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="67" t="s">
         <v>243</v>
       </c>
       <c r="J16" t="s">
@@ -4969,16 +4920,16 @@
       <c r="E17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="67" t="s">
         <v>216</v>
       </c>
       <c r="J17" t="s">
@@ -5004,16 +4955,16 @@
       <c r="E18" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="67" t="s">
         <v>210</v>
       </c>
       <c r="J18" t="s">
@@ -5039,16 +4990,16 @@
       <c r="E19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="67" t="s">
         <v>217</v>
       </c>
       <c r="J19" t="s">
@@ -5074,16 +5025,16 @@
       <c r="E20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="67" t="s">
         <v>218</v>
       </c>
       <c r="J20" t="s">
@@ -5109,16 +5060,16 @@
       <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="67" t="s">
         <v>248</v>
       </c>
       <c r="J21" t="s">
@@ -5144,16 +5095,16 @@
       <c r="E22" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="67" t="s">
         <v>250</v>
       </c>
       <c r="J22" t="s">
@@ -5179,16 +5130,16 @@
       <c r="E23" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="67" t="s">
         <v>252</v>
       </c>
       <c r="J23" t="s">
@@ -5214,16 +5165,16 @@
       <c r="E24" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="73" t="s">
+      <c r="I24" s="67" t="s">
         <v>254</v>
       </c>
       <c r="J24" t="s">
@@ -5249,16 +5200,16 @@
       <c r="E25" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="67" t="s">
         <v>256</v>
       </c>
       <c r="J25" t="s">
@@ -5284,16 +5235,16 @@
       <c r="E26" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="72" t="s">
+      <c r="H26" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="67" t="s">
         <v>258</v>
       </c>
       <c r="J26" t="s">
@@ -5319,16 +5270,16 @@
       <c r="E27" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="67" t="s">
         <v>260</v>
       </c>
       <c r="J27" t="s">
@@ -5354,16 +5305,16 @@
       <c r="E28" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" t="s">
         <v>207</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="67" t="s">
         <v>262</v>
       </c>
       <c r="J28" t="s">
@@ -5389,16 +5340,16 @@
       <c r="E29" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="67" t="s">
         <v>264</v>
       </c>
       <c r="J29" t="s">
@@ -5430,22 +5381,22 @@
       <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="47" t="s">
         <v>123</v>
       </c>
       <c r="H31" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="69" t="s">
+      <c r="I31" t="s">
         <v>125</v>
       </c>
       <c r="J31" t="s">
@@ -6021,7 +5972,7 @@
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
-      <c r="G63" s="70" t="s">
+      <c r="G63" s="67" t="s">
         <v>231</v>
       </c>
       <c r="J63" t="s">
@@ -6075,7 +6026,7 @@
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-13</v>
       </c>
-      <c r="G66" s="70" t="s">
+      <c r="G66" s="67" t="s">
         <v>232</v>
       </c>
       <c r="J66" t="s">
@@ -6237,7 +6188,7 @@
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G75" s="70" t="s">
+      <c r="G75" s="67" t="s">
         <v>232</v>
       </c>
       <c r="J75" t="s">
@@ -6255,7 +6206,7 @@
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
-      <c r="G76" s="70" t="s">
+      <c r="G76" s="67" t="s">
         <v>231</v>
       </c>
       <c r="J76" t="s">
@@ -7883,27 +7834,27 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7917,19 +7868,19 @@
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="52" t="s">
         <v>144</v>
       </c>
       <c r="I7" t="s">
@@ -8182,22 +8133,22 @@
       <c r="C19" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="56" t="s">
         <v>167</v>
       </c>
       <c r="H19" t="s">
         <v>168</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="57" t="s">
         <v>169</v>
       </c>
       <c r="J19" t="s">
@@ -8241,22 +8192,22 @@
       <c r="C22" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="61" t="s">
         <v>167</v>
       </c>
       <c r="H22" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="62" t="s">
         <v>169</v>
       </c>
       <c r="J22" t="s">
@@ -8279,16 +8230,16 @@
       <c r="C24" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="66" t="s">
         <v>167</v>
       </c>
       <c r="H24" t="s">
